--- a/Testdata/TC_30.xlsx
+++ b/Testdata/TC_30.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>GRoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpLXsY1ZBrrZESpZhiTX67wUI3JsTU1xFHJoWW8pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIVDUpKz1XZhrDnnNmfOnOsYvX0zC6xrEsWUhQ9L1YpTskjoMZ+Glw9LCb8oV3dLb7uoc+OR4ARHeEY4EFvAFcYHNzF9WJpyPj+w7cViUVnUKyy6tGuOU7Uf9Xsjb0pmuEzDmOPQIyXD5b+eq+Silj/rE459zLHifFjqjrqVFqFeG2B9HOJLElWaSUxDEsedkFNOSSw4I4I5abX731MHc2uV3UoV2WvwjLKZ0MBXdAVKBdd0sC0Z0xlxa051r+zslevVsbN74NQO6k6lVtt5N2U0hKiHYz4i0TX1JGDE8Wwu2Z29etXZdWp1B9kbiUBWZgAXDQJ/SK5pTPwWCYJ4K4vY+gIbHodTb2dMUC/HqwW9uQpHEZ5Px5QHZDs1hv2mNQu1LpkQFx2yiHhgvzdS6ZgsBpE263jeA+x4SiO+bOPl1rJOYxIN5sJI27G6qM1C3ghIxE/ncNfEB1cAhMujhCD7HmTG1KaxB980TIjvXuAgzjMVkOiMRVfxHHvkGOLYFjIWYcCwDw7HacypF2cC1jDoJGJzEAm7N1ngH4LYlHoDxsjuhmBksXGTsatV8UUkkvcqbxhudYaN/DU4Gk3ZYhAGy1Eyib2ITojfbqbUG3FIhKTmbiUxZzPQIgMhBctBlvAPQnAVjNrEozMcnARgxtitg5QCADUSzi4ob7EgmYXGnitQdAYnGpMbc0KzRgO43lBYnYXdMKVXrrARVWQYsoXZcx0hjZADN2Iv9bJ1xCpxG2Dp9a1j5I2IUx7SACpE/i5y0KJXjKaE8I0uoTBIJMNDUXPc5vI4mU0gwCYQZddy1xjZGR6Bo4K3g16uA3WkLH/GjnMgf0APg0ad0L+fLkUi2C63l1sF3AoIwZmCZoDDK4CeUT49bqRn2YBBygL30q/jEMTuPMBLCTZWysNQN/SCxCcqJXTDC+miQjdNfS8erYF6EOUuwuFyvJyL1GDfQ9EmFzgJoFpxSCqXWb5YAaNGfLVKkweh0yhIb9wVvUAMzYDnzyoepEtR8CoemwmADTX4bITsPL3I+R7phJc9HF4mkFWNHVfhxt9EPhhHOIzFcUwSXXG9zUQovReV3F11WYNEupO6LAZYZK/QoTGZzVmEgz4Yhh4moSygukKAhfuYT/UKYjkgXmpkO2M1XEXNUsVfRyaDUh1DZPx8UOagkkocRvUdKiEUYUgcs898qPw4oJOo4GUbcXBjWT1M/U2cbsvamF4C9J6Qbr5LlqIhyRYaLpzWraYIuUItUMkdDXf2ag+ceg1SuVgjeeIhwYHVga6UE6sbXpOYz4DtwBqSmPrwRXFwYL1DJoRC1EsT6bjbmjvPhw4j8l4C3fVSqtIAfYuQIgEk2Esa4mCd0GAyBvec4ChY5gjVUXvMA7q7H/3r9tdPXzz7/O7jx6++/OA/f//li3/89PbJh/Bx95e/3n7yC3VMRYzGeBIQqdC4ubfn1HfA0QwI6fwAJd9PPC5h5+eyBTBrpHtZuWh1uq2jXlMmFANM2UV7kYhg6OElS7LlSB1CbiSv1E49QZG44zRB6XUB2yai7qsoFG3rNSlS5/H3MSpbvHz++cvnf7qXWxssKy7V/f0H5WrttbUHBoDqGp2pPWIcUN1eOmzslJ0H5VotR7xCg4YwM0FzZ+zU9V2YL/bFfFE1ydw3jryJaBWlJY3xpb3Cp0AtloQ8WhoXyK9TpHT8MYSIQatQyC20i37541d/flyg0tbVkKIUUI4lkfImO11I0cfDsTUanA5bHWvcGQk/yXA5OiX8G4j17iaeCk4VhgkOvgOTspiTrRK0gCWLXVgEe1NrCZGYi8OCs22Cqo3eUOSqlkcRS+bqRnIMGXQDpckmGzk25BqJk/ZcSzoZagO50vX2b19sYtAH0W52GlJuRr48DBUwCpTD66j97J8vvvroxbNnd09/dvvVDwsS9D5mEgI/h2jKL43bQ8rT9WYFgs5G0phXzvdz9UUDRed4wmjIY7e6K5tGvULAWhXS5G/UnUHJk4KlvQC+AkHv4Lhzw3Vgu8fILgJAzzmGasuyZtsAVA7P7Prv3/z27ldf3H369NVHf7z9+A+3n3z68vnvXj35vYq6u8dP737yRGf51UIgdREtvOoCLTkRepaIRkvUbuvr939uhYxb0HNYicxIX7//WU6YUFR2J5lk6OmMIkUV1kjzzILPyqlidCjwGRbVALRECasbCl3E2Jx62SbvloUoEXcS8a3uuJzExGLQTn0bTlIkzpj/Vz7NokrqyVtOrVrTWKWNOMIExznTHwVsAk1GipAT1wpJgeubGTJaud9Rb9Bs9DISpcQg8mFAc8TYKD5Q2lOKktKN05WZLDIIYKHx85JADMlrZOsoIzmXxmw9bV40fJH+Ns9mBQoY2KNINUShfr4cJXPohrluYO/Hy5eaXP97rHrVfEecrbvtIh7WOSwUwiJaACRepiaNUmmqG4vBVrWzx8I02RJwhdcdMId+oVSd1jX0lZEt8k4nili0MflkmJSsD500ZBQ7s7ihkXequm4/u6sUkCY886FGP31C1iYB4ds939kZd59dvzEv3P22rN14EPjamNuNHsYsmYD8G6ZwlP/3CVM5WyOKoLESLx5bvzmmk+sQBt4ttVFHkYxiAoTd9aPgIY1i/khkAv2lIOcGcq461Edi4FIfcn3u7qs14O28cLugZRq5XD0ks6BHZ3TLqdBJw7soBEw5n6sOrrudo4jKckxuoL/MSYCcOPkBVA0x8WwnTfkrpFLDL95qYno55dsq9tYEE59MnLI3IbXyju/slfcJqZerVfgfe7Wa4zwQDz1aOCQOShZbbmKnF5b9gcf9Lx+K5dsZGgAA</t>
+          <t>8RsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkpLt2MYsA93sCJUsQ5LrdV6KETmyp6ZIhRza1lsKJEiRpiiKYlOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+GQlORs6RoGzDm3OXPmXMfo7Zu5b1yRKKZh8Khi16yKQQI39Ghw/qiSsFnV3qm87aDujUv8YxzhOWFAbABXEO/fxPRR5YKxxb5pXl9f164btTA6N+uWZZuPB/2xe0HmuEqDmOHAJRXN5b2Zq+KgtjcfEIY9zLDkfFTpjXu1NqFuB2ADHOBzEtVaSUwDEsfdgFFGScw5I4IZaXcG35MHc+q1nZqNzDV4RtlKqO9JugKlhCs62JZM6Jw4datuVa3dan1rYtv7jb19q1Fr7G69mzJqQtTHMRuT6Iq6AjBmeL4Q7NZufcu2G3tWA5kbiUBWZgAHDX1vRK5oTLw28f24lEVMdYFNl8GpyxnTQmaOVwl6uAqHEV5cTCjzSVn2gzAiLhjqQXsfkethpOw3WfQBO7mgEVt28LK0rJOYRMMFt0Y5Vgd1woA1fRKxkwVcKvHgzgHhsCghyLwHmTF1aOzCNw0S4jkz7Md5pgISnYbRZbzALjmCgDW5jOvAD7EHnsVozKgbZwLWMOg4ChcgEnZvhb53AGJT6g0YLbsXgJH5xq0wvFwVX0Qi4QXCH+BW51jLX4Oj8UV4PQz85TiZxm5Ep8TrtFLqjTjEY09xt5OYhXPQIgMhCctBlvADsbYKRh3i0jn2j30wY+xAlBYBqJmwcEZZO/STeaDtuQJFp3CiCbnRJ9RrNITrDbjVw6AXpPTSFTaiigyj8FrvuY4QRsiBm7Gbetk6YpW4A7D0+tYx4kb4KQ+oD6Ugfxc5aNErxheEsI0uITGIZ70DXlyc1vIomU8hwKYQZVdi1xiZGR6Bo4K3g16OBQWjKn4nlrUvfkEPjUbdwLufLkUi2C63l2MDbgWE4Ex+y8fBJUBPKbs4aqZn2YBB0gL30q/jEMTuwsdLAdZWysNQL3D9xCMyJfSCmXBRrpuivheP1kB9iHKeEcgMJz5UHQY54zxLBytg1IwvV2nyIHQS+emFOrymx1DUXW9ecyEb8sJVc8M5B5hQS0/HyMzT85Tukm5w3sfBeQJJU5tpFa7diYf7JMJBzM+jc+SKZ20mQqnZZe525F0ME+Et8i5CwCJzhQ5NyHwRRtgfgGHoQRKIQqgKAFhygNmFWkGo+sTNWTll1VxFzVLF30QmYk4egyf0fMzloIKKH0b2DzLeizDEjzkIPajg2KfTqOBEG3FwY1m5S92Jn65k6UsvAXpIyCbfJUveWGQLBZ8sF8SxU4RYoTao5IxHW7v1batRh0zN10iceESwb3Shu2TE6AVXJGZzYNs3RiSmHnxR7O8b75ApoRDUwkQqrEpz5/nQQUTeS6BLXgpVmqBvEVIkgPx5TgPsrxNqTMbgnBEc+cscoTxqP3SB7u5H/7r99bOXzz+/+/jJ6y8/+M/ff/nyHz+9ffohfNz95a+3n/xCHlMSowme+kQoNGnt7lqNLXA0DULcuKao9V7iMgE7OxMVXq+R6knFot3ttQ/7LfCoHDBl591DwoOhj5dhki3H8hBiI3GlZuoJksSZCHnZuoDtEF7WZRTy9vOKFKnz+PsYpS1evfj81Ys/3cutDJbVDntvb7tq199YWuqWba/R6dLC23rZzKmhwd6qWtvVej1HvEKDRjD7QO+m7dTznIZt7Vn1hmWn+gMsdeRNRKsoJWmCz80VPglqh0nAoqV2gfw6RQrHn0CIaLQMhdxCueiXP3795ycFKmVdBSlKAeXCJJLeZKYLIfpoNDHGw5NRu2tMumPuJxkuRyeFfwOx2l3HU8GpgiDB/ndg4uXzrlGBDq9ihDODYPfCWEIk5uKw4GyboHKjB4pc1fIwCpOFvJEcQwbdQKmzyUaODblG4IQ915JOhtpALnW9/dsXmxjUQZSbnQSUOaNBy5gH2i8FDBUwEpTDq6j97J8vv/ro5fPnd89+dvvVDwsS1D560AE/h2jKL7XbQ8pT9WYFgk7HwpiX1vdz9UUBeWN4HNKAxY69I3pCtULAanNp4i/qzaHkCcHCXgBfgaB3cNy9YSqwnSNkFgGg5wJDtQ2zXloDZA7P7Prv3/z27ldf3H367PVHf7z9+A+3n3z66sXvXj/9vYy6uyfP7n7yVGX51UIgdOEdumwDDTHwuQaPRoPXbuPr939uBCEzoOcwEpGRvn7/s5wwrqjoTjLJ0NNpRYoqrJHmmTmfkVNF61Dg0yyyAWjzEtbQFKqIhQvqZpu8W+WieNwJxLd6k2oSEyOEdurbcJIiccb8v/IpFllSj9+y6nZdYaU2/AhTHOdMf+iHU2gyUoQYqFZIClzfzJDRiv0O+8NWs5+RSCWGkQfzl8WnQv6BenHaVephIYMAFpo9N/H53LtGto5C6VcudZlqgJw1PZ7yNo9bBQqYwaNINkGBenocJwvogJlqWu/Hi8eXXM97JPvTfBecrXudIh7WOSwUvyKaAwRepCOFkqmpF/NZVbawR9w02RJwhQcbMId6XZTd1RX0kpHJc003isJoY8LJMCnZALpnyCJmZnFNY/ItZaftZXeVAtIkpz94r65zYdghPmGln95S7kF49WBeuPuyrL146HvKmOXGDW2WTED+/ZE7SlllmlEEbRN/rij9YNinwWWv3OmdLfsty9qZug17dwvvWLtewyIu8Sx725t5U8iUUigfP7kIPrnw2a3cJtAsFtmzQXsEo3dJadLAgpHPomApEZAqses1OqBRzB7zFKW+JORMQ85k6/yY6yc/xPrM2ZNrwJv5vcyC0ml6YfKlOvT7dE5LjqtWmoOKQsALFgvZWpa9Tyh5R+QGGt+cBEjW0x9AOeOjWDlpMqggx2v+VNY4mZYWZ6bMx4DnfvUw7q4HbdnDucWrL/X/DwVE4/VQEb0gpucXrOy91vf2GmSH1Kv1metWt2BRhWI8rXp4tmdb1qzhbdf5+5wSDsWBkuuSm/CSQmMYK8rzmSv/uHP+C4ZhtZ7xGwAA</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -465,4 +465,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>10</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3452AEE0-01F7-48FF-848D-213882B2D64B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_30.xlsx
+++ b/Testdata/TC_30.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkpLt2MYsA93sCJUsQ5LrdV6KETmyp6ZIhRza1lsKJEiRpiiKYlOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+GQlORs6RoGzDm3OXPmXMfo7Zu5b1yRKKZh8Khi16yKQQI39Ghw/qiSsFnV3qm87aDujUv8YxzhOWFAbABXEO/fxPRR5YKxxb5pXl9f164btTA6N+uWZZuPB/2xe0HmuEqDmOHAJRXN5b2Zq+KgtjcfEIY9zLDkfFTpjXu1NqFuB2ADHOBzEtVaSUwDEsfdgFFGScw5I4IZaXcG35MHc+q1nZqNzDV4RtlKqO9JugKlhCs62JZM6Jw4datuVa3dan1rYtv7jb19q1Fr7G69mzJqQtTHMRuT6Iq6AjBmeL4Q7NZufcu2G3tWA5kbiUBWZgAHDX1vRK5oTLw28f24lEVMdYFNl8GpyxnTQmaOVwl6uAqHEV5cTCjzSVn2gzAiLhjqQXsfkethpOw3WfQBO7mgEVt28LK0rJOYRMMFt0Y5Vgd1woA1fRKxkwVcKvHgzgHhsCghyLwHmTF1aOzCNw0S4jkz7Md5pgISnYbRZbzALjmCgDW5jOvAD7EHnsVozKgbZwLWMOg4ChcgEnZvhb53AGJT6g0YLbsXgJH5xq0wvFwVX0Qi4QXCH+BW51jLX4Oj8UV4PQz85TiZxm5Ep8TrtFLqjTjEY09xt5OYhXPQIgMhCctBlvADsbYKRh3i0jn2j30wY+xAlBYBqJmwcEZZO/STeaDtuQJFp3CiCbnRJ9RrNITrDbjVw6AXpPTSFTaiigyj8FrvuY4QRsiBm7Gbetk6YpW4A7D0+tYx4kb4KQ+oD6Ugfxc5aNErxheEsI0uITGIZ70DXlyc1vIomU8hwKYQZVdi1xiZGR6Bo4K3g16OBQWjKn4nlrUvfkEPjUbdwLufLkUi2C63l2MDbgWE4Ex+y8fBJUBPKbs4aqZn2YBB0gL30q/jEMTuwsdLAdZWysNQL3D9xCMyJfSCmXBRrpuivheP1kB9iHKeEcgMJz5UHQY54zxLBytg1IwvV2nyIHQS+emFOrymx1DUXW9ecyEb8sJVc8M5B5hQS0/HyMzT85Tukm5w3sfBeQJJU5tpFa7diYf7JMJBzM+jc+SKZ20mQqnZZe525F0ME+Et8i5CwCJzhQ5NyHwRRtgfgGHoQRKIQqgKAFhygNmFWkGo+sTNWTll1VxFzVLF30QmYk4egyf0fMzloIKKH0b2DzLeizDEjzkIPajg2KfTqOBEG3FwY1m5S92Jn65k6UsvAXpIyCbfJUveWGQLBZ8sF8SxU4RYoTao5IxHW7v1batRh0zN10iceESwb3Shu2TE6AVXJGZzYNs3RiSmHnxR7O8b75ApoRDUwkQqrEpz5/nQQUTeS6BLXgpVmqBvEVIkgPx5TgPsrxNqTMbgnBEc+cscoTxqP3SB7u5H/7r99bOXzz+/+/jJ6y8/+M/ff/nyHz+9ffohfNz95a+3n/xCHlMSowme+kQoNGnt7lqNLXA0DULcuKao9V7iMgE7OxMVXq+R6knFot3ttQ/7LfCoHDBl591DwoOhj5dhki3H8hBiI3GlZuoJksSZCHnZuoDtEF7WZRTy9vOKFKnz+PsYpS1evfj81Ys/3cutDJbVDntvb7tq199YWuqWba/R6dLC23rZzKmhwd6qWtvVej1HvEKDRjD7QO+m7dTznIZt7Vn1hmWn+gMsdeRNRKsoJWmCz80VPglqh0nAoqV2gfw6RQrHn0CIaLQMhdxCueiXP3795ycFKmVdBSlKAeXCJJLeZKYLIfpoNDHGw5NRu2tMumPuJxkuRyeFfwOx2l3HU8GpgiDB/ndg4uXzrlGBDq9ihDODYPfCWEIk5uKw4GyboHKjB4pc1fIwCpOFvJEcQwbdQKmzyUaODblG4IQ915JOhtpALnW9/dsXmxjUQZSbnQSUOaNBy5gH2i8FDBUwEpTDq6j97J8vv/ro5fPnd89+dvvVDwsS1D560AE/h2jKL7XbQ8pT9WYFgk7HwpiX1vdz9UUBeWN4HNKAxY69I3pCtULAanNp4i/qzaHkCcHCXgBfgaB3cNy9YSqwnSNkFgGg5wJDtQ2zXloDZA7P7Prv3/z27ldf3H367PVHf7z9+A+3n3z66sXvXj/9vYy6uyfP7n7yVGX51UIgdOEdumwDDTHwuQaPRoPXbuPr939uBCEzoOcwEpGRvn7/s5wwrqjoTjLJ0NNpRYoqrJHmmTmfkVNF61Dg0yyyAWjzEtbQFKqIhQvqZpu8W+WieNwJxLd6k2oSEyOEdurbcJIiccb8v/IpFllSj9+y6nZdYaU2/AhTHOdMf+iHU2gyUoQYqFZIClzfzJDRiv0O+8NWs5+RSCWGkQfzl8WnQv6BenHaVephIYMAFpo9N/H53LtGto5C6VcudZlqgJw1PZ7yNo9bBQqYwaNINkGBenocJwvogJlqWu/Hi8eXXM97JPvTfBecrXudIh7WOSwUvyKaAwRepCOFkqmpF/NZVbawR9w02RJwhQcbMId6XZTd1RX0kpHJc003isJoY8LJMCnZALpnyCJmZnFNY/ItZaftZXeVAtIkpz94r65zYdghPmGln95S7kF49WBeuPuyrL146HvKmOXGDW2WTED+/ZE7SlllmlEEbRN/rij9YNinwWWv3OmdLfsty9qZug17dwvvWLtewyIu8Sx725t5U8iUUigfP7kIPrnw2a3cJtAsFtmzQXsEo3dJadLAgpHPomApEZAqses1OqBRzB7zFKW+JORMQ85k6/yY6yc/xPrM2ZNrwJv5vcyC0ml6YfKlOvT7dE5LjqtWmoOKQsALFgvZWpa9Tyh5R+QGGt+cBEjW0x9AOeOjWDlpMqggx2v+VNY4mZYWZ6bMx4DnfvUw7q4HbdnDucWrL/X/DwVE4/VQEb0gpucXrOy91vf2GmSH1Kv1metWt2BRhWI8rXp4tmdb1qzhbdf5+5wSDsWBkuuSm/CSQmMYK8rzmSv/uHP+C4ZhtZ7xGwAA</t>
+          <t>GRoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUpLXsY1ZBrrZESpZhiTX67wUI3JsTU1xFHJoWW8pkCBFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIVDUpKz1XZhrDnnNmfOnOsYvX0zC6xrEsWUhQ9L1YpTskjoMZ+Glw9LCb8oV3dLb7uoc+OR4ARHeEY4EFvAFcYHNzF9WJpyPj+w7cViUVnUKyy6tGuOU7Uf9Xsjb0pmuEzDmOPQIyXD5b+eq+Silj/rE459zLHifFjqjrqVFqFeG2B9HOJLElWaSUxDEsedkFNOSSw4I4I5abX731MHc2uV3UoV2WvwjLKZ0MBXdAVKBdd0sC0Z0xlxa051r+zslevVsbN74NQO6k6lVtt5N2U0hKiHYz4i0TX1JGDE8Wwu2Z29etXZdWp1B9kbiUBWZgAXDQJ/SK5pTPwWCYJ4K4vY+gIbHodTb2dMUC/HqwW9uQpHEZ5Px5QHZDs1hv2mNQu1LpkQFx2yiHhgvzdS6ZgsBpE263jeA+x4SiO+bOPl1rJOYxIN5sJI27G6qM1C3ghIxE/ncNfEB1cAhMujhCD7HmTG1KaxB980TIjvXuAgzjMVkOiMRVfxHHvkGOLYFjIWYcCwDw7HacypF2cC1jDoJGJzEAm7N1ngH4LYlHoDxsjuhmBksXGTsatV8UUkkvcqbxhudYaN/DU4Gk3ZYhAGy1Eyib2ITojfbqbUG3FIhKTmbiUxZzPQIgMhBctBlvAPQnAVjNrEozMcnARgxtitg5QCADUSzi4ob7EgmYXGnitQdAYnGpMbc0KzRgO43lBYnYXdMKVXrrARVWQYsoXZcx0hjZADN2Iv9bJ1xCpxG2Dp9a1j5I2IUx7SACpE/i5y0KJXjKaE8I0uoTBIJMNDUXPc5vI4mU0gwCYQZddy1xjZGR6Bo4K3g16uA3WkLH/GjnMgf0APg0ad0L+fLkUi2C63l1sF3AoIwZmCZoDDK4CeUT49bqRn2YBBygL30q/jEMTuPMBLCTZWysNQN/SCxCcqJXTDC+miQjdNfS8erYF6EOUuwuFyvJyL1GDfQ9EmFzgJoFpxSCqXWb5YAaNGfLVKkweh0yhIb9wVvUAMzYDnzyoepEtR8CoemwmADTX4bITsPL3I+R7phJc9HF4mkFWNHVfhxt9EPhhHOIzFcUwSXXG9zUQovReV3F11WYNEupO6LAZYZK/QoTGZzVmEgz4Yhh4moSygukKAhfuYT/UKYjkgXmpkO2M1XEXNUsVfRyaDUh1DZPx8UOagkkocRvUdKiEUYUgcs898qPw4oJOo4GUbcXBjWT1M/U2cbsvamF4C9J6Qbr5LlqIhyRYaLpzWraYIuUItUMkdDXf2ag+ceg1SuVgjeeIhwYHVga6UE6sbXpOYz4DtwBqSmPrwRXFwYL1DJoRC1EsT6bjbmjvPhw4j8l4C3fVSqtIAfYuQIgEk2Esa4mCd0GAyBvec4ChY5gjVUXvMA7q7H/3r9tdPXzz7/O7jx6++/OA/f//li3/89PbJh/Bx95e/3n7yC3VMRYzGeBIQqdC4ubfn1HfA0QwI6fwAJd9PPC5h5+eyBTBrpHtZuWh1uq2jXlMmFANM2UV7kYhg6OElS7LlSB1CbiSv1E49QZG44zRB6XUB2yai7qsoFG3rNSlS5/H3MSpbvHz++cvnf7qXWxssKy7V/f0H5WrttbUHBoDqGp2pPWIcUN1eOmzslJ0H5VotR7xCg4YwM0FzZ+zU9V2YL/bFfFE1ydw3jryJaBWlJY3xpb3Cp0AtloQ8WhoXyK9TpHT8MYSIQatQyC20i37541d/flyg0tbVkKIUUI4lkfImO11I0cfDsTUanA5bHWvcGQk/yXA5OiX8G4j17iaeCk4VhgkOvgOTspiTrRK0gCWLXVgEe1NrCZGYi8OCs22Cqo3eUOSqlkcRS+bqRnIMGXQDpckmGzk25BqJk/ZcSzoZagO50vX2b19sYtAH0W52GlJuRr48DBUwCpTD66j97J8vvvroxbNnd09/dvvVDwsS9D5mEgI/h2jKL43bQ8rT9WYFgs5G0phXzvdz9UUDRed4wmjIY7e6K5tGvULAWhXS5G/UnUHJk4KlvQC+AkHv4Lhzw3Vgu8fILgJAzzmGasuyZtsAVA7P7Prv3/z27ldf3H369NVHf7z9+A+3n3z68vnvXj35vYq6u8dP737yRGf51UIgdREtvOoCLTkRepaIRkvUbuvr939uhYxb0HNYicxIX7//WU6YUFR2J5lk6OmMIkUV1kjzzILPyqlidCjwGRbVALRECasbCl3E2Jx62SbvloUoEXcS8a3uuJzExGLQTn0bTlIkzpj/Vz7NokrqyVtOrVrTWKWNOMIExznTHwVsAk1GipAT1wpJgeubGTJaud9Rb9Bs9DISpcQg8mFAc8TYKD5Q2lOKktKN05WZLDIIYKHx85JADMlrZOsoIzmXxmw9bV40fJH+Ns9mBQoY2KNINUShfr4cJXPohrluYO/Hy5eaXP97rHrVfEecrbvtIh7WOSwUwiJaACRepiaNUmmqG4vBVrWzx8I02RJwhdcdMId+oVSd1jX0lZEt8k4nili0MflkmJSsD500ZBQ7s7ihkXequm4/u6sUkCY886FGP31C1iYB4ds939kZd59dvzEv3P22rN14EPjamNuNHsYsmYD8G6ZwlP/3CVM5WyOKoLESLx5bvzmmk+sQBt4ttVFHkYxiAoTd9aPgIY1i/khkAv2lIOcGcq461Edi4FIfcn3u7qs14O28cLugZRq5XD0ks6BHZ3TLqdBJw7soBEw5n6sOrrudo4jKckxuoL/MSYCcOPkBVA0x8WwnTfkrpFLDL95qYno55dsq9tYEE59MnLI3IbXyju/slfcJqZerVfgfe7Wa4zwQDz1aOCQOShZbbmKnF5b9gcf9Lx+K5dsZGgAA</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -465,37 +465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>10</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3452AEE0-01F7-48FF-848D-213882B2D64B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>